--- a/Bill_of_Materials/Bill_of_Materials.xlsx
+++ b/Bill_of_Materials/Bill_of_Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewdavies/Andy's Documents/Equipment &amp; Facilities/Microplastic_Filter/Bill_of_Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC2637B-5B18-E14F-AFF6-C4AA9BCE3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AFDBAD-19EF-0E42-AF66-78277DF65D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68440" yWindow="900" windowWidth="28040" windowHeight="17440" xr2:uid="{6A64A5D6-77DD-6344-9F29-9337CEFE606C}"/>
+    <workbookView xWindow="51660" yWindow="1580" windowWidth="28020" windowHeight="20800" xr2:uid="{6A64A5D6-77DD-6344-9F29-9337CEFE606C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
   <si>
     <t>Frame Construction</t>
   </si>
@@ -100,9 +100,6 @@
     <t>4467K44</t>
   </si>
   <si>
-    <t>Hose</t>
-  </si>
-  <si>
     <t>Suction Water Hose, 1" ID, 1-5/16" OD</t>
   </si>
   <si>
@@ -110,6 +107,162 @@
   </si>
   <si>
     <t>50 foot</t>
+  </si>
+  <si>
+    <t>Anodized Aluminum Cam-And-Groove Hose Coupling, Size 1, Socket With Nonlocking Levers, 1" Hose Id</t>
+  </si>
+  <si>
+    <t>2084T32</t>
+  </si>
+  <si>
+    <t>Filters and filter housings</t>
+  </si>
+  <si>
+    <t>10C316-SC280-C98B0B</t>
+  </si>
+  <si>
+    <t>Serv-A-Pure</t>
+  </si>
+  <si>
+    <t>9.875"</t>
+  </si>
+  <si>
+    <t>280 um stainless steel cartridge</t>
+  </si>
+  <si>
+    <t>Only need one for the system, but if doing multiple sites, need to increase</t>
+  </si>
+  <si>
+    <t>10C316-SC100-C98B0B</t>
+  </si>
+  <si>
+    <t>100 um stainless steel cartridge</t>
+  </si>
+  <si>
+    <t>10 um stainless steel cartridge</t>
+  </si>
+  <si>
+    <t>10C316-SC10-C98B0B</t>
+  </si>
+  <si>
+    <t>Quantrol QFP1X10-3/4</t>
+  </si>
+  <si>
+    <t>QFP1X10-3/4</t>
+  </si>
+  <si>
+    <t>10 inch</t>
+  </si>
+  <si>
+    <t>Control filters</t>
+  </si>
+  <si>
+    <t>BBFS-22</t>
+  </si>
+  <si>
+    <t>Pentek Big Blue Water Filtration System</t>
+  </si>
+  <si>
+    <t>20 inch</t>
+  </si>
+  <si>
+    <t>Big Blue Filter, 25/1 Micron</t>
+  </si>
+  <si>
+    <t>Big Blue Filter, 75/25 Micron</t>
+  </si>
+  <si>
+    <t>155360-43</t>
+  </si>
+  <si>
+    <t>155356-43</t>
+  </si>
+  <si>
+    <t>5537T688</t>
+  </si>
+  <si>
+    <t>Tee nut M8</t>
+  </si>
+  <si>
+    <t>50 approximately required</t>
+  </si>
+  <si>
+    <t>M8 Socket head screw</t>
+  </si>
+  <si>
+    <t>Standard-Wall 316/316L Stainless Steel Pipe</t>
+  </si>
+  <si>
+    <t>4816K191</t>
+  </si>
+  <si>
+    <t>14 inches</t>
+  </si>
+  <si>
+    <t>22 inches</t>
+  </si>
+  <si>
+    <t>4816K194</t>
+  </si>
+  <si>
+    <t>316 Stainless Steel Threaded Pipe Fitting - Tee</t>
+  </si>
+  <si>
+    <t>4452K435</t>
+  </si>
+  <si>
+    <t>Ultra-Corrosion Resistant Full-Port On/Off Valve</t>
+  </si>
+  <si>
+    <t>46495K22</t>
+  </si>
+  <si>
+    <t>316 Stainless Steel Threaded Pipe Fitting - Elbow</t>
+  </si>
+  <si>
+    <t>4452K415</t>
+  </si>
+  <si>
+    <t>4548K193</t>
+  </si>
+  <si>
+    <t>2 inches</t>
+  </si>
+  <si>
+    <t>4548K197</t>
+  </si>
+  <si>
+    <t>5 inches</t>
+  </si>
+  <si>
+    <t>4548K345</t>
+  </si>
+  <si>
+    <t>6.5 inches</t>
+  </si>
+  <si>
+    <t>4452K115</t>
+  </si>
+  <si>
+    <t>4548K198</t>
+  </si>
+  <si>
+    <t>6 inches</t>
+  </si>
+  <si>
+    <t>Marine-Grade 5086 Aluminum 90 Degree Angle</t>
+  </si>
+  <si>
+    <t>4039T16</t>
+  </si>
+  <si>
+    <t>3 foot L, 1.25 height</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>Hose and fittings</t>
   </si>
 </sst>
 </file>
@@ -190,9 +343,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -512,176 +664,687 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DCB554-768C-C242-9E0A-1A5C7FFC8C3C}">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="19.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>14</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="1">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>22</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>23</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>24</v>
       </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -690,8 +1353,25 @@
     <hyperlink ref="G4" r:id="rId1" xr:uid="{2AA0398F-6ED1-F54C-ADE9-21D313C8F79D}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{CCEAC407-7905-C745-85B4-8EE4FD92A13D}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{8E8FC7BB-7B78-4646-B59D-6DD046395FCC}"/>
-    <hyperlink ref="G10" r:id="rId4" xr:uid="{604A5572-29A2-C94F-BD6B-428B27E485F7}"/>
-    <hyperlink ref="G22" r:id="rId5" xr:uid="{E820D923-8C48-774E-97E9-42B9141868AD}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{604A5572-29A2-C94F-BD6B-428B27E485F7}"/>
+    <hyperlink ref="G36" r:id="rId5" xr:uid="{E820D923-8C48-774E-97E9-42B9141868AD}"/>
+    <hyperlink ref="G37" r:id="rId6" xr:uid="{658C396B-65FC-1C4F-9F39-B8F058FB9202}"/>
+    <hyperlink ref="G28" r:id="rId7" xr:uid="{8066BB02-DA17-BF4B-9C5C-7D35C25B95BD}"/>
+    <hyperlink ref="G25:G27" r:id="rId8" display="Link" xr:uid="{447D7820-ADF6-1742-9617-534A1652CF50}"/>
+    <hyperlink ref="G31" r:id="rId9" xr:uid="{A99503C6-4FC0-8044-8086-F3150172B74A}"/>
+    <hyperlink ref="G32" r:id="rId10" xr:uid="{25FF7DDA-716D-F24C-B7BA-C09525F927A8}"/>
+    <hyperlink ref="G33" r:id="rId11" xr:uid="{CB8102FD-671B-5E4E-ADBA-BEAAF88FEBBF}"/>
+    <hyperlink ref="G14" r:id="rId12" xr:uid="{1B195FBC-AD7F-9546-8E81-2C2A1102CF1B}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{E78AB6D4-B971-6E43-AB98-E4E47253FA85}"/>
+    <hyperlink ref="G13" r:id="rId14" xr:uid="{A8998392-CA10-9540-AB48-EACBF80FA97D}"/>
+    <hyperlink ref="G22" r:id="rId15" xr:uid="{5DE0E7B6-2E28-704A-AEAB-0A1234DB5D34}"/>
+    <hyperlink ref="G21" r:id="rId16" xr:uid="{82C901E1-58E9-1D4D-9FAC-DA0C97668BB6}"/>
+    <hyperlink ref="G16" r:id="rId17" xr:uid="{E612B2AE-B44E-4E47-A9A8-18A0D7568F17}"/>
+    <hyperlink ref="G17" r:id="rId18" xr:uid="{04F21CD2-0E69-A840-9158-22ED39DD1247}"/>
+    <hyperlink ref="G18" r:id="rId19" xr:uid="{BB76EF03-AF6A-4D4A-8004-F812A0825827}"/>
+    <hyperlink ref="G19" r:id="rId20" xr:uid="{BAF1CA3B-944E-9841-94A2-FFEA6681254E}"/>
+    <hyperlink ref="G20" r:id="rId21" xr:uid="{FB2B8D4F-0DE0-B04B-8AD8-D307E126C1A3}"/>
+    <hyperlink ref="G9" r:id="rId22" xr:uid="{D70176CB-7B2E-C748-8A37-96A72615A8F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
